--- a/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{820A85D6-6C1A-4649-9739-DE3C47B35B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F07D78-B669-4A12-A78D-0C19283BFDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F07D78-B669-4A12-A78D-0C19283BFDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3AA8F9-94C9-4539-916F-A1B9075B7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>
@@ -836,9 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -878,7 +876,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD1">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1153,7 +1151,7 @@
       </c>
       <c r="AJ8">
         <f>AI8*$AD$1</f>
-        <v>0.46352484154569623</v>
+        <v>0.10300552034348805</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="AJ9">
         <f>AI9*$AD$1</f>
-        <v>0.10359304601101355</v>
+        <v>2.3020676891336342E-2</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1596,7 +1594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A1887-1B0C-44A8-9658-90FD86FEE0A5}">
   <dimension ref="A9:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>

--- a/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3AA8F9-94C9-4539-916F-A1B9075B7100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02321E64-007B-4C22-8198-256D0D3A0F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02321E64-007B-4C22-8198-256D0D3A0F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D9B770-4CE7-4BC6-A91C-92D221E2D610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_CHN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D9B770-4CE7-4BC6-A91C-92D221E2D610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E5C8ED-37AC-4491-857D-C00897A3A21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
